--- a/Group Work Diary.xlsx
+++ b/Group Work Diary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28224"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC6BC00-E961-487B-9F41-141CC28A7DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5712132E-1DEA-4B1D-B87B-BBEACF309565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="52">
   <si>
     <t>ItSE Group Work Diary Form</t>
   </si>
@@ -53,44 +53,152 @@
     <t>Work Diary Agreed Tasks</t>
   </si>
   <si>
+    <t>weeks</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Task2</t>
+  </si>
+  <si>
+    <t>Allocate To</t>
+  </si>
+  <si>
+    <t>Predecessor Task</t>
+  </si>
+  <si>
+    <t>Planned Start Date</t>
+  </si>
+  <si>
+    <t>Planned End Date</t>
+  </si>
+  <si>
+    <t>Actual Start Date</t>
+  </si>
+  <si>
+    <t>Actual End Date</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>David Adegeloye</t>
+  </si>
+  <si>
+    <t>c2020232@hallam.shu.ac.uk</t>
+  </si>
+  <si>
+    <t>Front-end Stuff. We'll go into more detail later</t>
+  </si>
+  <si>
+    <t>week 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Project Scope</t>
+  </si>
+  <si>
+    <t>Abdirizak Mumin/Igor Jankowski/Odi Ehimuan/David Adegeloye</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Odi Ehimuan</t>
+  </si>
+  <si>
+    <t>c3018521@hallam.shu.ac.uk</t>
+  </si>
+  <si>
+    <t>week 3</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Task 1: Define User roles</t>
+  </si>
+  <si>
+    <t>Abdirizak Mumin</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completed </t>
+  </si>
+  <si>
+    <t>Igor Jankowski</t>
+  </si>
+  <si>
+    <t>c2053730@hallam.shu.ac.uk</t>
+  </si>
+  <si>
+    <t>Back-end Stuff. We'll go into more detail later</t>
+  </si>
+  <si>
+    <t>c1053702@hallam.shu.ac.uk</t>
+  </si>
+  <si>
+    <t>Define Personas</t>
+  </si>
+  <si>
+    <t>Define Scenarios</t>
+  </si>
+  <si>
+    <t>Define User Stories</t>
+  </si>
+  <si>
+    <t>Detail user story acceptance criteria</t>
+  </si>
+  <si>
+    <t>week 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plainning </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use case diagram </t>
+  </si>
+  <si>
+    <t>Abdirizak Mumin/Igor Jankowski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uncompleted </t>
+  </si>
+  <si>
     <t>Note: List all tasks seperated by commas for each member.</t>
   </si>
   <si>
-    <t>David Adegeloye</t>
-  </si>
-  <si>
-    <t>c2020232@hallam.shu.ac.uk</t>
-  </si>
-  <si>
-    <t>Front-end Stuff. We'll go into more detail later</t>
-  </si>
-  <si>
-    <t>Back-end Stuff. We'll go into more detail later</t>
-  </si>
-  <si>
-    <t>c1053702@hallam.shu.ac.uk</t>
-  </si>
-  <si>
-    <t>c2053730@hallam.shu.ac.uk</t>
-  </si>
-  <si>
-    <t>Igor Jankowski</t>
-  </si>
-  <si>
-    <t>Abdirizak Mumin</t>
-  </si>
-  <si>
-    <t>c3018521@hallam.shu.ac.uk</t>
-  </si>
-  <si>
-    <t>Odi Ehimuan</t>
+    <t>Creates. the wire frame or prototype.</t>
+  </si>
+  <si>
+    <t>Abdirizak Mumin/David Adegeloye</t>
+  </si>
+  <si>
+    <t>Abdirizak Mumin/ Odi Ehimuan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">planning </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Building Front-end of website </t>
+  </si>
+  <si>
+    <t>Odi Ehimuan/David Adegeloye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Building Back-end of website </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +228,18 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -170,7 +290,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -179,6 +299,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -198,6 +325,26 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{89D7617F-DCED-48F4-8833-E3154A5F9EE2}" name="Table6" displayName="Table6" ref="E3:O12" totalsRowShown="0">
+  <autoFilter ref="E3:O12" xr:uid="{89D7617F-DCED-48F4-8833-E3154A5F9EE2}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{719B8E47-E504-45C0-8F94-BFA7BA49078D}" name="weeks"/>
+    <tableColumn id="2" xr3:uid="{F71D0C6F-F66C-4C55-93D6-0A28CDB58A3D}" name="Phase"/>
+    <tableColumn id="3" xr3:uid="{7CC5898C-E23B-4D38-9D28-A55339355408}" name="Task"/>
+    <tableColumn id="4" xr3:uid="{E7C12FF3-F8CF-4715-81E7-8913E508186E}" name="Task2"/>
+    <tableColumn id="5" xr3:uid="{8CA0484E-4613-4405-8A15-20D0C3AD10F2}" name="Allocate To"/>
+    <tableColumn id="6" xr3:uid="{22B135FA-051C-46F2-95D9-BE5668B71DD9}" name="Predecessor Task"/>
+    <tableColumn id="7" xr3:uid="{97E55492-628C-4AC5-B62F-AF9B96825BA0}" name="Planned Start Date"/>
+    <tableColumn id="8" xr3:uid="{4AD542FA-078A-4E53-9CC6-7B9E7FEE83CF}" name="Planned End Date"/>
+    <tableColumn id="9" xr3:uid="{B22B6FE0-72CC-4C12-95D9-09B515A75516}" name="Actual Start Date"/>
+    <tableColumn id="10" xr3:uid="{9501C469-0475-423B-93E4-9DB0D43F1336}" name="Actual End Date"/>
+    <tableColumn id="11" xr3:uid="{7E05EF66-34F0-48BC-BAA3-C471A4B0EC6C}" name="Status"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -517,32 +664,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="18.28515625" customWidth="1"/>
     <col min="3" max="3" width="36.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:15" ht="38.25" customHeight="1">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -552,55 +713,295 @@
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="29.25">
       <c r="A4" s="4" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="4" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="4" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="4" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="29.25">
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>5</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="F11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="25.5">
+      <c r="A12" s="7"/>
+      <c r="F12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -613,5 +1014,8 @@
     <hyperlink ref="B5" r:id="rId4" xr:uid="{D360A492-6DD5-4DE1-80CC-184F1A648A0F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId5"/>
+  </tableParts>
 </worksheet>
 </file>